--- a/choco/converters/validation/results/s2-02/sample_3/ireal-pro_914.xlsx
+++ b/choco/converters/validation/results/s2-02/sample_3/ireal-pro_914.xlsx
@@ -730,8 +730,8 @@
       <c r="E17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="5" t="b">
-        <v>0</v>
+      <c r="F17" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -751,8 +751,8 @@
       <c r="E18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="5" t="b">
-        <v>0</v>
+      <c r="F18" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -772,8 +772,8 @@
       <c r="E19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="5" t="b">
-        <v>0</v>
+      <c r="F19" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -793,8 +793,8 @@
       <c r="E20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="5" t="b">
-        <v>0</v>
+      <c r="F20" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -814,8 +814,8 @@
       <c r="E21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="5" t="b">
-        <v>0</v>
+      <c r="F21" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -835,8 +835,8 @@
       <c r="E22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="5" t="b">
-        <v>0</v>
+      <c r="F22" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -856,8 +856,8 @@
       <c r="E23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="5" t="b">
-        <v>0</v>
+      <c r="F23" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -877,8 +877,8 @@
       <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="5" t="b">
-        <v>0</v>
+      <c r="F24" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -898,8 +898,8 @@
       <c r="E25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="5" t="b">
-        <v>0</v>
+      <c r="F25" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -919,8 +919,8 @@
       <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="5" t="b">
-        <v>0</v>
+      <c r="F26" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="G26" s="5"/>
     </row>
